--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
   <si>
     <t>Qty</t>
   </si>
@@ -137,9 +137,6 @@
     <t>FUSE</t>
   </si>
   <si>
-    <t>FUSE_HOLDER_5X20MM</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -215,63 +212,18 @@
     <t>DC-DC Converter</t>
   </si>
   <si>
-    <t>SCREW-TERM-2</t>
-  </si>
-  <si>
-    <t>24VIN, 24VOUT, MODE</t>
-  </si>
-  <si>
-    <t>2-Pin Screw Terminal</t>
-  </si>
-  <si>
-    <t>SCREW-TERM-3</t>
-  </si>
-  <si>
-    <t>RAMP</t>
-  </si>
-  <si>
-    <t>3-Pin Screw Terminal</t>
-  </si>
-  <si>
-    <t>SCREW-TERM-4</t>
-  </si>
-  <si>
-    <t>MOTOR</t>
-  </si>
-  <si>
-    <t>4-Pin Screw Terminal</t>
-  </si>
-  <si>
     <t>SCREW-TERM-5</t>
   </si>
   <si>
-    <t>FRONT</t>
-  </si>
-  <si>
     <t>5-Pin Screw Terminal</t>
   </si>
   <si>
-    <t>FUSE HOLDER</t>
-  </si>
-  <si>
     <t>FUSE_5X20MM</t>
   </si>
   <si>
-    <t>4A-SLOW-BLOW</t>
-  </si>
-  <si>
     <t>Manufacturer Part Number</t>
   </si>
   <si>
-    <t>FK24X7R1H105K</t>
-  </si>
-  <si>
-    <t>K104K15X7RF5UH5</t>
-  </si>
-  <si>
-    <t>1C10C0G220J050B</t>
-  </si>
-  <si>
     <t>FK20X7S1H106K</t>
   </si>
   <si>
@@ -290,9 +242,6 @@
     <t>1N5251B-TAP</t>
   </si>
   <si>
-    <t>Bulk.  Could switch to K220J10C0GF5UH5 if we change package size to 5mm. Should look at changing to 20pF.</t>
-  </si>
-  <si>
     <t>FOXSLF/080-20</t>
   </si>
   <si>
@@ -305,13 +254,67 @@
     <t>1-2199298-3</t>
   </si>
   <si>
-    <t>Change value in Eagle</t>
-  </si>
-  <si>
     <t>BT137-600E,127</t>
   </si>
   <si>
-    <t>Use 6-pin 1935174</t>
+    <t>MFR-25FBF52-10K</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>MFR-25FBF52-1K</t>
+  </si>
+  <si>
+    <t>MFR-25FBF52-220R</t>
+  </si>
+  <si>
+    <t>MFR-25FBF52-68R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1N5231B-TAP </t>
+  </si>
+  <si>
+    <t>5MT 4-R</t>
+  </si>
+  <si>
+    <t>Need to experiement to find appropriate fuse type</t>
+  </si>
+  <si>
+    <t>FUSE CLIP</t>
+  </si>
+  <si>
+    <t>FUSE_CLIP_5MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000056Z </t>
+  </si>
+  <si>
+    <t>4A-MEDIUM-BLOW</t>
+  </si>
+  <si>
+    <t>SCREW-TERM-6</t>
+  </si>
+  <si>
+    <t>6-Pin Screw Terminal</t>
+  </si>
+  <si>
+    <t>SCREW-TERM-7</t>
+  </si>
+  <si>
+    <t>7-Pin Screw Terminal</t>
+  </si>
+  <si>
+    <t>SR151A200JAR</t>
+  </si>
+  <si>
+    <t>K104K15X7RF53L2</t>
+  </si>
+  <si>
+    <t>Bulk. Need 2.5mm spacing on the board</t>
+  </si>
+  <si>
+    <t>FK14X7R1H105K</t>
   </si>
 </sst>
 </file>
@@ -355,11 +358,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -697,13 +703,13 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>83</v>
+      <c r="H2" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,6 +728,12 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -740,13 +752,13 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -765,6 +777,12 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -783,13 +801,13 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -808,6 +826,12 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -826,10 +850,13 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -849,13 +876,13 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -875,11 +902,14 @@
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -898,13 +928,13 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -912,16 +942,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -932,10 +968,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -943,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -952,11 +994,17 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -972,7 +1020,13 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -980,211 +1034,194 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1935200</v>
+      </c>
+      <c r="G22" t="s">
         <v>90</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1935190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1935213</v>
+      </c>
+      <c r="G24" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -654,11 +654,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1226,6 +1227,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>Qty</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Zener Diode</t>
   </si>
   <si>
-    <t>22pF</t>
-  </si>
-  <si>
     <t>CAPACITOR-2.5MM</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>470uF</t>
-  </si>
-  <si>
     <t>CAP-POL-25-14</t>
   </si>
   <si>
@@ -140,18 +134,12 @@
     <t>F1</t>
   </si>
   <si>
-    <t>5.1V</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
     <t>R6</t>
   </si>
   <si>
-    <t>8Mhz</t>
-  </si>
-  <si>
     <t>CRYSTAL-V</t>
   </si>
   <si>
@@ -161,12 +149,6 @@
     <t>Crystal Oscillator</t>
   </si>
   <si>
-    <t>ATTINY84-20PU</t>
-  </si>
-  <si>
-    <t>DIP14</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -212,12 +194,6 @@
     <t>DC-DC Converter</t>
   </si>
   <si>
-    <t>SCREW-TERM-5</t>
-  </si>
-  <si>
-    <t>5-Pin Screw Terminal</t>
-  </si>
-  <si>
     <t>FUSE_5X20MM</t>
   </si>
   <si>
@@ -230,30 +206,15 @@
     <t>Ammo pack</t>
   </si>
   <si>
-    <t>EEU-FR1H471B</t>
-  </si>
-  <si>
-    <t>Expensive but long-life</t>
-  </si>
-  <si>
     <t>1N5254B-TAP</t>
   </si>
   <si>
     <t>1N5251B-TAP</t>
   </si>
   <si>
-    <t>FOXSLF/080-20</t>
-  </si>
-  <si>
-    <t>14P</t>
-  </si>
-  <si>
     <t>Socket</t>
   </si>
   <si>
-    <t>1-2199298-3</t>
-  </si>
-  <si>
     <t>BT137-600E,127</t>
   </si>
   <si>
@@ -266,15 +227,6 @@
     <t>MFR-25FBF52-1K</t>
   </si>
   <si>
-    <t>MFR-25FBF52-220R</t>
-  </si>
-  <si>
-    <t>MFR-25FBF52-68R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1N5231B-TAP </t>
-  </si>
-  <si>
     <t>5MT 4-R</t>
   </si>
   <si>
@@ -293,28 +245,61 @@
     <t>4A-MEDIUM-BLOW</t>
   </si>
   <si>
-    <t>SCREW-TERM-6</t>
-  </si>
-  <si>
-    <t>6-Pin Screw Terminal</t>
-  </si>
-  <si>
-    <t>SCREW-TERM-7</t>
-  </si>
-  <si>
-    <t>7-Pin Screw Terminal</t>
-  </si>
-  <si>
     <t>SR151A200JAR</t>
   </si>
   <si>
     <t>K104K15X7RF53L2</t>
   </si>
   <si>
-    <t>Bulk. Need 2.5mm spacing on the board</t>
-  </si>
-  <si>
     <t>FK14X7R1H105K</t>
+  </si>
+  <si>
+    <t>16Mhz</t>
+  </si>
+  <si>
+    <t>ATS16A</t>
+  </si>
+  <si>
+    <t>1-2199298-9</t>
+  </si>
+  <si>
+    <t>DIP28</t>
+  </si>
+  <si>
+    <t>28P</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-PU</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>MF1/4DC68R0F</t>
+  </si>
+  <si>
+    <t>MF1/4DC2200F</t>
+  </si>
+  <si>
+    <t>20pF</t>
+  </si>
+  <si>
+    <t>Expensive but long-life, 470uF version is EEU-FR1H471B</t>
+  </si>
+  <si>
+    <t>EEU-FR1H102</t>
+  </si>
+  <si>
+    <t>1000uF</t>
+  </si>
+  <si>
+    <t>1N5240B-TAP</t>
+  </si>
+  <si>
+    <t>10V</t>
   </si>
 </sst>
 </file>
@@ -358,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -366,6 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +635,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,36 +667,39 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>95</v>
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -718,105 +707,111 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
-        <v>220</v>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -825,91 +820,82 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+      <c r="B9" s="3">
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
+      <c r="B10" s="3">
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -917,25 +903,25 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -943,42 +929,51 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -986,48 +981,45 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
-        <v>68</v>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,195 +1027,144 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1935200</v>
-      </c>
-      <c r="G22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1935190</v>
-      </c>
-      <c r="G23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1935213</v>
-      </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>Qty</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>10V</t>
+  </si>
+  <si>
+    <t>MF1/4DC3903F</t>
+  </si>
+  <si>
+    <t>330K</t>
+  </si>
+  <si>
+    <t>R9</t>
   </si>
 </sst>
 </file>
@@ -632,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +739,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
@@ -808,10 +817,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -820,10 +829,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
         <v>65</v>
@@ -834,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -843,10 +852,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>65</v>
@@ -856,8 +865,8 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
-        <v>220</v>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -866,10 +875,10 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
         <v>65</v>
@@ -877,10 +886,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -889,10 +898,10 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
         <v>65</v>
@@ -902,26 +911,23 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+      <c r="B11" s="3">
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -929,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -938,10 +944,10 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -955,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -964,10 +970,10 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -978,25 +984,28 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,45 +1013,45 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1050,22 +1059,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,10 +1082,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D18" t="s">
         <v>79</v>
@@ -1085,10 +1094,10 @@
         <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1096,22 +1105,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1119,52 +1128,75 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
       </c>
       <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
   <si>
     <t>Qty</t>
   </si>
@@ -50,9 +50,6 @@
     <t>CAPACITOR-5MM</t>
   </si>
   <si>
-    <t>C5, C7, C10</t>
-  </si>
-  <si>
     <t>Ceramic Capacitor</t>
   </si>
   <si>
@@ -65,30 +62,15 @@
     <t>AXIAL-7.5MM</t>
   </si>
   <si>
-    <t>R3, R8</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
-    <t>C1, C3</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C6, C8, C9</t>
-  </si>
-  <si>
-    <t>R4, R5</t>
-  </si>
-  <si>
     <t>22V</t>
   </si>
   <si>
@@ -107,9 +89,6 @@
     <t>CAPACITOR-2.5MM</t>
   </si>
   <si>
-    <t>C11, C12</t>
-  </si>
-  <si>
     <t>27V</t>
   </si>
   <si>
@@ -119,9 +98,6 @@
     <t>CAP-POL-25-14</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>Polarized Capacitor</t>
   </si>
   <si>
@@ -134,12 +110,6 @@
     <t>F1</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>CRYSTAL-V</t>
   </si>
   <si>
@@ -230,9 +200,6 @@
     <t>5MT 4-R</t>
   </si>
   <si>
-    <t>Need to experiement to find appropriate fuse type</t>
-  </si>
-  <si>
     <t>FUSE CLIP</t>
   </si>
   <si>
@@ -302,13 +269,58 @@
     <t>10V</t>
   </si>
   <si>
-    <t>MF1/4DC3903F</t>
-  </si>
-  <si>
-    <t>330K</t>
-  </si>
-  <si>
-    <t>R9</t>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>SUP75P03-07-E3</t>
+  </si>
+  <si>
+    <t>SUP75P03-07-E3-H</t>
+  </si>
+  <si>
+    <t>560K</t>
+  </si>
+  <si>
+    <t>Need to experiment to find appropriate fuse type</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2, R8</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R5, R6</t>
+  </si>
+  <si>
+    <t>R3, R4</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C8, C9</t>
+  </si>
+  <si>
+    <t>C4, C5, C10</t>
+  </si>
+  <si>
+    <t>C1, C2, C7</t>
+  </si>
+  <si>
+    <t>C3, C6</t>
+  </si>
+  <si>
+    <t>D3, D4</t>
+  </si>
+  <si>
+    <t>Bulk (maybe)</t>
+  </si>
+  <si>
+    <t>MFR-25FBF52-576K</t>
   </si>
 </sst>
 </file>
@@ -641,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,13 +688,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -690,25 +702,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -725,42 +737,42 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -771,22 +783,22 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -794,25 +806,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -820,22 +832,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -843,22 +855,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -866,22 +878,22 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -892,19 +904,19 @@
         <v>220</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,19 +927,19 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -935,25 +947,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,25 +973,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -987,25 +999,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1013,45 +1025,45 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1059,22 +1071,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,22 +1094,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,22 +1117,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1128,22 +1140,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1151,52 +1163,75 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
   <si>
     <t>Qty</t>
   </si>
@@ -134,9 +134,6 @@
     <t>TO220BH</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>TRIAC</t>
   </si>
   <si>
@@ -278,12 +275,6 @@
     <t>SUP75P03-07-E3-H</t>
   </si>
   <si>
-    <t>560K</t>
-  </si>
-  <si>
-    <t>Need to experiment to find appropriate fuse type</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -321,6 +312,30 @@
   </si>
   <si>
     <t>MFR-25FBF52-576K</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>B3F-1020</t>
+  </si>
+  <si>
+    <t>S1, S2, S3, S4</t>
+  </si>
+  <si>
+    <t>TACTILE-SWITCH-6MM</t>
+  </si>
+  <si>
+    <t>SWITCH-MOMENTARY-6MM</t>
+  </si>
+  <si>
+    <t>Derated 25% per standard, consider fast-blow?</t>
+  </si>
+  <si>
+    <t>576K</t>
+  </si>
+  <si>
+    <t>version 3.0.1</t>
   </si>
 </sst>
 </file>
@@ -656,16 +671,16 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="55.42578125" bestFit="1" customWidth="1"/>
@@ -688,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -702,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -711,16 +726,16 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -737,16 +752,16 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -763,16 +778,16 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,16 +804,16 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -806,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -815,16 +830,16 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -841,13 +856,13 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -864,13 +879,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
         <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -887,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -910,13 +925,13 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,13 +948,13 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,13 +974,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,13 +1000,13 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -999,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1008,16 +1023,16 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1034,13 +1049,13 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
         <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1048,22 +1063,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
       </c>
       <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
         <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1071,22 +1086,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
         <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1094,22 +1109,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
         <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1117,19 +1132,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -1140,22 +1155,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1163,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1172,10 +1187,10 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -1186,22 +1201,22 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1212,25 +1227,45 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
         <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="3"/>
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="F26" s="3"/>
     </row>
   </sheetData>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -296,15 +296,6 @@
     <t>C8, C9</t>
   </si>
   <si>
-    <t>C4, C5, C10</t>
-  </si>
-  <si>
-    <t>C1, C2, C7</t>
-  </si>
-  <si>
-    <t>C3, C6</t>
-  </si>
-  <si>
     <t>D3, D4</t>
   </si>
   <si>
@@ -335,7 +326,16 @@
     <t>576K</t>
   </si>
   <si>
-    <t>version 3.0.1</t>
+    <t>C3, C4</t>
+  </si>
+  <si>
+    <t>C1, C2, C5</t>
+  </si>
+  <si>
+    <t>C6, C7, C10</t>
+  </si>
+  <si>
+    <t>version 3.0.2</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
@@ -787,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -830,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -859,7 +859,7 @@
         <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
         <v>54</v>
@@ -1023,7 +1023,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -1095,7 +1095,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -1216,7 +1216,7 @@
         <v>56</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1244,19 +1244,19 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -119,9 +119,6 @@
     <t>Crystal Oscillator</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>8-bit Microcontroller with In-System Programmable Flash</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>version 3.0.2</t>
+  </si>
+  <si>
+    <t>IC1</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,16 +752,16 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,16 +778,16 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,16 +804,16 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -830,16 +830,16 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -856,13 +856,13 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -879,13 +879,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
         <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,13 +925,13 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,13 +948,13 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -974,13 +974,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,13 +1000,13 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1023,16 +1023,16 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1040,22 +1040,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
         <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1063,22 +1063,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,22 +1086,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1109,22 +1109,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
         <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1132,22 +1132,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
         <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,22 +1155,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1187,10 +1187,10 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -1201,22 +1201,22 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1227,16 +1227,16 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1244,19 +1244,19 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="3"/>
     </row>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -671,7 +671,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>Qty</t>
   </si>
@@ -113,9 +114,6 @@
     <t>CRYSTAL-V</t>
   </si>
   <si>
-    <t>Q2</t>
-  </si>
-  <si>
     <t>Crystal Oscillator</t>
   </si>
   <si>
@@ -134,12 +132,6 @@
     <t>TRIAC</t>
   </si>
   <si>
-    <t>IPP80P03P4L-04</t>
-  </si>
-  <si>
-    <t>IPP80P03P4L-04-H</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -266,12 +258,6 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>SUP75P03-07-E3</t>
-  </si>
-  <si>
-    <t>SUP75P03-07-E3-H</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -302,9 +288,6 @@
     <t>MFR-25FBF52-576K</t>
   </si>
   <si>
-    <t>Q3</t>
-  </si>
-  <si>
     <t>B3F-1020</t>
   </si>
   <si>
@@ -332,17 +315,26 @@
     <t>C6, C7, C10</t>
   </si>
   <si>
-    <t>version 3.0.2</t>
-  </si>
-  <si>
     <t>IC1</t>
+  </si>
+  <si>
+    <t>SUP53P06-20-E3</t>
+  </si>
+  <si>
+    <t>Q2, Q3</t>
+  </si>
+  <si>
+    <t>version 3.1.1</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +346,63 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -379,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -388,6 +437,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -726,16 +782,16 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,16 +808,16 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,16 +834,16 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,16 +860,16 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -830,16 +886,16 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -856,13 +912,13 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -879,13 +935,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,13 +958,13 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,13 +981,13 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,13 +1004,13 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -974,13 +1030,13 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,13 +1056,13 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1023,16 +1079,16 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1040,45 +1096,45 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
         <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,22 +1142,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1109,22 +1165,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1132,22 +1188,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,22 +1211,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,36 +1234,36 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -1215,61 +1271,592 @@
       <c r="F22" t="s">
         <v>55</v>
       </c>
-      <c r="H22" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="4" max="4" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="9">
+        <v>42215</v>
+      </c>
+      <c r="E1" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9">
+        <v>42304</v>
+      </c>
+      <c r="G1" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="12">
+        <f>SUM(D2:ZZ2)</f>
+        <v>20</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>60</v>
+      </c>
+      <c r="G2" s="7">
+        <f>-(G$1*$A2)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="12">
+        <f>SUM(D3:ZZ3)</f>
+        <v>170</v>
+      </c>
+      <c r="D3" s="6">
+        <v>200</v>
+      </c>
+      <c r="E3" s="7">
+        <f>-(E$1*$A3)</f>
+        <v>-10</v>
+      </c>
+      <c r="G3" s="7">
+        <f>-(G$1*$A3)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" ref="C4:C22" si="0">SUM(D4:ZZ4)</f>
+        <v>40</v>
+      </c>
+      <c r="D4" s="6">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E22" si="1">-(E$1*$A4)</f>
+        <v>-20</v>
+      </c>
+      <c r="G4" s="7">
+        <f>-(G$1*$A4)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G22" si="2">-(G$1*$A5)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D7" s="6">
+        <v>100</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>100</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D13" s="6">
+        <v>100</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="F14" s="6">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="D17" s="6">
+        <v>200</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="D18" s="6">
+        <v>200</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="F19" s="6">
+        <v>20</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D20" s="6">
+        <v>100</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D21" s="6">
+        <v>100</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D22" s="6">
+        <v>100</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -15,7 +15,7 @@
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Inventory" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -537,6 +537,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -572,6 +589,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1309,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,9 +1358,11 @@
     <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1348,8 +1384,14 @@
       <c r="G1" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="9">
+        <v>42464</v>
+      </c>
+      <c r="I1" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1358,20 +1400,27 @@
       </c>
       <c r="C2" s="12">
         <f>SUM(D2:ZZ2)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G2" s="7">
         <f>-(G$1*$A2)</f>
         <v>-40</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="6">
+        <v>50</v>
+      </c>
+      <c r="I2" s="7">
+        <f>-(I$1*$A2)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1380,7 +1429,7 @@
       </c>
       <c r="C3" s="12">
         <f>SUM(D3:ZZ3)</f>
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="D3" s="6">
         <v>200</v>
@@ -1393,8 +1442,12 @@
         <f>-(G$1*$A3)</f>
         <v>-20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="7">
+        <f>-(I$1*$A3)</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1403,7 +1456,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ref="C4:C22" si="0">SUM(D4:ZZ4)</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6">
         <v>100</v>
@@ -1416,8 +1469,15 @@
         <f>-(G$1*$A4)</f>
         <v>-40</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <v>100</v>
+      </c>
+      <c r="I4" s="7">
+        <f>-(I$1*$A4)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1426,7 +1486,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6">
         <v>10</v>
@@ -1439,11 +1499,18 @@
         <v>20</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G22" si="2">-(G$1*$A5)</f>
+        <f t="shared" ref="G5:I22" si="2">-(G$1*$A5)</f>
         <v>-20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="6">
+        <v>50</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1452,7 +1519,7 @@
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6">
         <v>100</v>
@@ -1465,8 +1532,15 @@
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1475,7 +1549,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6">
         <v>100</v>
@@ -1488,8 +1562,12 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1514,8 +1592,15 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="6">
+        <v>25</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1540,8 +1625,15 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="6">
+        <v>25</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1566,8 +1658,15 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="6">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1576,7 +1675,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6">
         <v>100</v>
@@ -1589,8 +1688,15 @@
         <f t="shared" si="2"/>
         <v>-60</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="6">
+        <v>100</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="2"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1599,7 +1705,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6">
         <v>100</v>
@@ -1612,8 +1718,15 @@
         <f t="shared" si="2"/>
         <v>-60</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="6">
+        <v>100</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1622,7 +1735,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6">
         <v>100</v>
@@ -1635,8 +1748,15 @@
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="6">
+        <v>100</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1661,8 +1781,15 @@
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="6">
+        <v>50</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1687,8 +1814,15 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="6">
+        <v>25</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1713,8 +1847,15 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="6">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1723,7 +1864,7 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6">
         <v>200</v>
@@ -1736,8 +1877,12 @@
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1746,7 +1891,7 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6">
         <v>200</v>
@@ -1759,8 +1904,12 @@
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1785,8 +1934,15 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="6">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1795,7 +1951,7 @@
       </c>
       <c r="C20" s="12">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D20" s="6">
         <v>100</v>
@@ -1808,8 +1964,12 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1818,7 +1978,7 @@
       </c>
       <c r="C21" s="12">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D21" s="6">
         <v>100</v>
@@ -1831,8 +1991,12 @@
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1841,7 +2005,7 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D22" s="6">
         <v>100</v>
@@ -1853,6 +2017,13 @@
       <c r="G22" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
+      </c>
+      <c r="H22" s="6">
+        <v>100</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
       </c>
     </row>
   </sheetData>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
   <si>
     <t>Qty</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -444,6 +447,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,20 +769,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="55.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1343,26 +1352,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="12"/>
-    <col min="4" max="4" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="7"/>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="12"/>
+    <col min="4" max="4" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="7"/>
+    <col min="8" max="8" width="10.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="7"/>
+    <col min="10" max="10" width="9.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1378,20 +1389,26 @@
       <c r="E1" s="10">
         <v>10</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="13">
         <v>42304</v>
       </c>
       <c r="G1" s="10">
         <v>20</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="13">
         <v>42464</v>
       </c>
       <c r="I1" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="13">
+        <v>42625</v>
+      </c>
+      <c r="K1" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1405,22 +1422,29 @@
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="14">
         <v>40</v>
       </c>
       <c r="G2" s="7">
         <f>-(G$1*$A2)</f>
         <v>-40</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="14">
         <v>50</v>
       </c>
       <c r="I2" s="7">
         <f>-(I$1*$A2)</f>
         <v>-50</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="14">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7">
+        <f>-(K$1*$A2)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1429,7 +1453,7 @@
       </c>
       <c r="C3" s="12">
         <f>SUM(D3:ZZ3)</f>
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D3" s="6">
         <v>200</v>
@@ -1438,16 +1462,29 @@
         <f>-(E$1*$A3)</f>
         <v>-10</v>
       </c>
+      <c r="F3" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G3" s="7">
         <f>-(G$1*$A3)</f>
         <v>-20</v>
       </c>
+      <c r="H3" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="I3" s="7">
         <f>-(I$1*$A3)</f>
         <v>-25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="7">
+        <f>-(K$1*$A3)</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1456,7 +1493,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ref="C4:C22" si="0">SUM(D4:ZZ4)</f>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6">
         <v>100</v>
@@ -1465,19 +1502,29 @@
         <f t="shared" ref="E4:E22" si="1">-(E$1*$A4)</f>
         <v>-20</v>
       </c>
+      <c r="F4" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G4" s="7">
         <f>-(G$1*$A4)</f>
         <v>-40</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="14">
         <v>100</v>
       </c>
       <c r="I4" s="7">
         <f>-(I$1*$A4)</f>
         <v>-50</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="7">
+        <f>-(K$1*$A4)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1486,7 +1533,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <v>10</v>
@@ -1495,22 +1542,29 @@
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="14">
         <v>20</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:I22" si="2">-(G$1*$A5)</f>
+        <f t="shared" ref="G5:K22" si="2">-(G$1*$A5)</f>
         <v>-20</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="14">
         <v>50</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1519,7 +1573,7 @@
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6">
         <v>100</v>
@@ -1528,19 +1582,29 @@
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
+      <c r="F6" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="14">
         <v>100</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1549,7 +1613,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6">
         <v>100</v>
@@ -1558,16 +1622,29 @@
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
+      <c r="F7" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
+      <c r="H7" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="I7" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1585,22 +1662,29 @@
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="14">
         <v>20</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="14">
         <v>25</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="14">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1618,22 +1702,29 @@
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="14">
         <v>20</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="14">
         <v>25</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="14">
+        <v>25</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1651,22 +1742,29 @@
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="14">
         <v>20</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="14">
         <v>25</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="14">
+        <v>25</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1675,7 +1773,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D11" s="6">
         <v>100</v>
@@ -1684,19 +1782,29 @@
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
+      <c r="F11" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
         <v>-60</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="14">
         <v>100</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="2"/>
         <v>-75</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="14">
+        <v>100</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1705,7 +1813,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6">
         <v>100</v>
@@ -1714,19 +1822,29 @@
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
+      <c r="F12" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
         <v>-60</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="14">
         <v>100</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="2"/>
         <v>-75</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="14">
+        <v>100</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1735,7 +1853,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6">
         <v>100</v>
@@ -1744,19 +1862,29 @@
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
+      <c r="F13" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="14">
         <v>100</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1774,22 +1902,29 @@
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="14">
         <v>40</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="14">
         <v>50</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="14">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1807,22 +1942,29 @@
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="14">
         <v>20</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="14">
         <v>25</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="14">
+        <v>25</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1840,22 +1982,29 @@
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="14">
         <v>20</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="14">
         <v>25</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="14">
+        <v>25</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1864,7 +2013,7 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6">
         <v>200</v>
@@ -1873,16 +2022,29 @@
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
+      <c r="F17" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
+      <c r="H17" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="I17" s="7">
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1891,7 +2053,7 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D18" s="6">
         <v>200</v>
@@ -1900,16 +2062,29 @@
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
+      <c r="F18" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
+      <c r="H18" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="I18" s="7">
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1927,22 +2102,29 @@
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="14">
         <v>20</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="14">
         <v>25</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="14">
+        <v>25</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1951,7 +2133,7 @@
       </c>
       <c r="C20" s="12">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D20" s="6">
         <v>100</v>
@@ -1960,16 +2142,29 @@
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
+      <c r="F20" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
+      <c r="H20" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1978,7 +2173,7 @@
       </c>
       <c r="C21" s="12">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6">
         <v>100</v>
@@ -1987,16 +2182,29 @@
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
+      <c r="F21" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
+      <c r="H21" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2005,7 +2213,7 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D22" s="6">
         <v>100</v>
@@ -2014,14 +2222,24 @@
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
+      <c r="F22" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="14">
         <v>100</v>
       </c>
       <c r="I22" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="7">
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\elee\Projects\GitHub\MotorController\board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Github\MotorController\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="102">
   <si>
     <t>Qty</t>
   </si>
@@ -770,19 +770,19 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F22"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="24.875" customWidth="1"/>
-    <col min="8" max="8" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1352,28 +1352,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="12"/>
-    <col min="4" max="4" width="9.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="7"/>
-    <col min="8" max="8" width="10.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="7"/>
-    <col min="10" max="10" width="9.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="4" max="4" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1407,8 +1409,14 @@
       <c r="K1" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="13">
+        <v>42992</v>
+      </c>
+      <c r="M1" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1417,7 +1425,7 @@
       </c>
       <c r="C2" s="12">
         <f>SUM(D2:ZZ2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
@@ -1443,8 +1451,15 @@
         <f>-(K$1*$A2)</f>
         <v>-50</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="14">
+        <v>105</v>
+      </c>
+      <c r="M2" s="7">
+        <f>-(M$1*$A2)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1453,7 +1468,7 @@
       </c>
       <c r="C3" s="12">
         <f>SUM(D3:ZZ3)</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6">
         <v>200</v>
@@ -1483,8 +1498,15 @@
         <f>-(K$1*$A3)</f>
         <v>-25</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="7">
+        <f>-(M$1*$A3)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1523,8 +1545,15 @@
         <f>-(K$1*$A4)</f>
         <v>-50</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="14">
+        <v>100</v>
+      </c>
+      <c r="M4" s="7">
+        <f>-(M$1*$A4)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1533,7 +1562,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6">
         <v>10</v>
@@ -1546,7 +1575,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:K22" si="2">-(G$1*$A5)</f>
+        <f t="shared" ref="G5:M22" si="2">-(G$1*$A5)</f>
         <v>-20</v>
       </c>
       <c r="H5" s="14">
@@ -1563,8 +1592,15 @@
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="14">
+        <v>55</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1603,8 +1639,15 @@
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="14">
+        <v>100</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1613,7 +1656,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6">
         <v>100</v>
@@ -1643,8 +1686,15 @@
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="14">
+        <v>100</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1653,7 +1703,7 @@
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6">
         <v>10</v>
@@ -1683,8 +1733,15 @@
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="14">
+        <v>55</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1693,7 +1750,7 @@
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6">
         <v>10</v>
@@ -1723,8 +1780,15 @@
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="14">
+        <v>55</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1733,7 +1797,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6">
         <v>10</v>
@@ -1763,8 +1827,15 @@
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="14">
+        <v>55</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1773,7 +1844,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6">
         <v>100</v>
@@ -1803,8 +1874,15 @@
         <f t="shared" si="2"/>
         <v>-75</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="14">
+        <v>120</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="2"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1813,7 +1891,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D12" s="6">
         <v>100</v>
@@ -1843,8 +1921,15 @@
         <f t="shared" si="2"/>
         <v>-75</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="14">
+        <v>100</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="2"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1883,8 +1968,15 @@
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="14">
+        <v>100</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1893,7 +1985,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="6">
         <v>20</v>
@@ -1923,8 +2015,15 @@
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="14">
+        <v>105</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1933,7 +2032,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6">
         <v>10</v>
@@ -1963,8 +2062,15 @@
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="14">
+        <v>55</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1973,7 +2079,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6">
         <v>10</v>
@@ -2003,8 +2109,15 @@
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="14">
+        <v>55</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2013,7 +2126,7 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D17" s="6">
         <v>200</v>
@@ -2043,8 +2156,15 @@
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="14">
+        <v>70</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2053,7 +2173,7 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D18" s="6">
         <v>200</v>
@@ -2083,8 +2203,15 @@
         <f t="shared" si="2"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="14">
+        <v>70</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2093,7 +2220,7 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6">
         <v>10</v>
@@ -2123,8 +2250,15 @@
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="14">
+        <v>55</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2133,7 +2267,7 @@
       </c>
       <c r="C20" s="12">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D20" s="6">
         <v>100</v>
@@ -2163,8 +2297,15 @@
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="14">
+        <v>40</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2173,7 +2314,7 @@
       </c>
       <c r="C21" s="12">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21" s="6">
         <v>100</v>
@@ -2203,8 +2344,15 @@
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="14">
+        <v>40</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2242,6 +2390,13 @@
       <c r="K22" s="7">
         <f t="shared" si="2"/>
         <v>-50</v>
+      </c>
+      <c r="L22" s="14">
+        <v>100</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="2"/>
+        <v>-100</v>
       </c>
     </row>
   </sheetData>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Github\MotorController\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DEF07E-10B8-492C-9503-00692F252BAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Inventory" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
   <si>
     <t>Qty</t>
   </si>
@@ -331,12 +332,18 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Adjust</t>
+  </si>
+  <si>
+    <t>Unit Overage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,7 +773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1351,11 +1358,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,19 +1370,22 @@
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="12"/>
-    <col min="4" max="4" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="9.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="7"/>
-    <col min="12" max="12" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
+    <col min="4" max="4" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="9.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="7"/>
+    <col min="13" max="13" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="7"/>
+    <col min="16" max="16" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1385,38 +1395,50 @@
       <c r="C1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="9">
         <v>42215</v>
       </c>
-      <c r="E1" s="10">
+      <c r="F1" s="10">
         <v>10</v>
       </c>
-      <c r="F1" s="13">
+      <c r="G1" s="13">
         <v>42304</v>
       </c>
-      <c r="G1" s="10">
+      <c r="H1" s="10">
         <v>20</v>
       </c>
-      <c r="H1" s="13">
+      <c r="I1" s="13">
         <v>42464</v>
       </c>
-      <c r="I1" s="10">
+      <c r="J1" s="10">
         <v>25</v>
       </c>
-      <c r="J1" s="13">
+      <c r="K1" s="13">
         <v>42625</v>
       </c>
-      <c r="K1" s="10">
+      <c r="L1" s="10">
         <v>25</v>
       </c>
-      <c r="L1" s="13">
+      <c r="M1" s="13">
         <v>42992</v>
       </c>
-      <c r="M1" s="10">
+      <c r="N1" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="13">
+        <v>43578</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1424,42 +1446,56 @@
         <v>97</v>
       </c>
       <c r="C2" s="12">
-        <f>SUM(D2:ZZ2)</f>
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
+        <f>SUM(E2:AAA2)</f>
+        <v>21</v>
+      </c>
+      <c r="D2" s="12">
+        <f>C2/$A2</f>
+        <v>10.5</v>
+      </c>
+      <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="G2" s="14">
         <v>40</v>
       </c>
-      <c r="G2" s="7">
-        <f>-(G$1*$A2)</f>
+      <c r="H2" s="7">
+        <f>-(H$1*$A2)</f>
         <v>-40</v>
       </c>
-      <c r="H2" s="14">
+      <c r="I2" s="14">
         <v>50</v>
       </c>
-      <c r="I2" s="7">
-        <f>-(I$1*$A2)</f>
-        <v>-50</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="J2" s="7">
+        <f>-(J$1*$A2)</f>
+        <v>-50</v>
+      </c>
+      <c r="K2" s="14">
         <v>50</v>
       </c>
-      <c r="K2" s="7">
-        <f>-(K$1*$A2)</f>
-        <v>-50</v>
-      </c>
-      <c r="L2" s="14">
+      <c r="L2" s="7">
+        <f>-(L$1*$A2)</f>
+        <v>-50</v>
+      </c>
+      <c r="M2" s="14">
         <v>105</v>
       </c>
-      <c r="M2" s="7">
-        <f>-(M$1*$A2)</f>
+      <c r="N2" s="7">
+        <f>-(N$1*$A2)</f>
         <v>-100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" s="7">
+        <v>6</v>
+      </c>
+      <c r="P2" s="14">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="7">
+        <f>-(Q$1*$A2)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1467,46 +1503,57 @@
         <v>86</v>
       </c>
       <c r="C3" s="12">
-        <f>SUM(D3:ZZ3)</f>
-        <v>70</v>
-      </c>
-      <c r="D3" s="6">
+        <f>SUM(E3:AAA3)</f>
+        <v>20</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C3/$A3</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="6">
         <v>200</v>
       </c>
-      <c r="E3" s="7">
-        <f>-(E$1*$A3)</f>
+      <c r="F3" s="7">
+        <f>-(F$1*$A3)</f>
         <v>-10</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="7">
-        <f>-(G$1*$A3)</f>
+      <c r="G3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="7">
+        <f>-(H$1*$A3)</f>
         <v>-20</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="7">
-        <f>-(I$1*$A3)</f>
+      <c r="I3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="7">
+        <f>-(J$1*$A3)</f>
         <v>-25</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="7">
-        <f>-(K$1*$A3)</f>
+      <c r="K3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="7">
+        <f>-(L$1*$A3)</f>
         <v>-25</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" s="7">
-        <f>-(M$1*$A3)</f>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="7">
+        <f>-(N$1*$A3)</f>
+        <v>-50</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>-(Q$1*$A3)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1514,46 +1561,60 @@
         <v>74</v>
       </c>
       <c r="C4" s="12">
-        <f t="shared" ref="C4:C22" si="0">SUM(D4:ZZ4)</f>
-        <v>40</v>
-      </c>
-      <c r="D4" s="6">
-        <v>100</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E22" si="1">-(E$1*$A4)</f>
+        <f>SUM(E4:AAA4)</f>
+        <v>33</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" ref="D4:D22" si="0">C4/$A4</f>
+        <v>16.5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F22" si="1">-(F$1*$A4)</f>
         <v>-20</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="7">
-        <f>-(G$1*$A4)</f>
+      <c r="G4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="7">
+        <f>-(H$1*$A4)</f>
         <v>-40</v>
       </c>
-      <c r="H4" s="14">
-        <v>100</v>
-      </c>
-      <c r="I4" s="7">
-        <f>-(I$1*$A4)</f>
-        <v>-50</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="7">
-        <f>-(K$1*$A4)</f>
-        <v>-50</v>
-      </c>
-      <c r="L4" s="14">
-        <v>100</v>
-      </c>
-      <c r="M4" s="7">
-        <f>-(M$1*$A4)</f>
+      <c r="I4" s="14">
+        <v>100</v>
+      </c>
+      <c r="J4" s="7">
+        <f>-(J$1*$A4)</f>
+        <v>-50</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="7">
+        <f>-(L$1*$A4)</f>
+        <v>-50</v>
+      </c>
+      <c r="M4" s="14">
+        <v>100</v>
+      </c>
+      <c r="N4" s="7">
+        <f>-(N$1*$A4)</f>
         <v>-100</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="7">
+        <v>-7</v>
+      </c>
+      <c r="P4" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>-(Q$1*$A4)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1561,46 +1622,60 @@
         <v>72</v>
       </c>
       <c r="C5" s="12">
+        <f>SUM(E5:AAA5)</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
         <v>10</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F5" s="14">
+      <c r="G5" s="14">
         <v>20</v>
       </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:M22" si="2">-(G$1*$A5)</f>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:N22" si="2">-(H$1*$A5)</f>
         <v>-20</v>
       </c>
-      <c r="H5" s="14">
+      <c r="I5" s="14">
         <v>50</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="K5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="L5" s="14">
+      <c r="M5" s="14">
         <v>55</v>
       </c>
-      <c r="M5" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="O5" s="7">
+        <v>2</v>
+      </c>
+      <c r="P5" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" ref="Q5:Q22" si="3">-(Q$1*$A5)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1608,46 +1683,60 @@
         <v>69</v>
       </c>
       <c r="C6" s="12">
+        <f>SUM(E6:AAA6)</f>
+        <v>24</v>
+      </c>
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D6" s="6">
-        <v>100</v>
-      </c>
-      <c r="E6" s="7">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="G6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="H6" s="14">
-        <v>100</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="L6" s="14">
-        <v>100</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="I6" s="14">
+        <v>100</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="M6" s="14">
+        <v>100</v>
+      </c>
+      <c r="N6" s="7">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="7">
+        <v>-16</v>
+      </c>
+      <c r="P6" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1655,46 +1744,57 @@
         <v>68</v>
       </c>
       <c r="C7" s="12">
+        <f>SUM(E7:AAA7)</f>
+        <v>20</v>
+      </c>
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D7" s="6">
-        <v>100</v>
-      </c>
-      <c r="E7" s="7">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="I7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="K7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="L7" s="14">
-        <v>100</v>
-      </c>
-      <c r="M7" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="14">
+        <v>100</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1702,46 +1802,60 @@
         <v>62</v>
       </c>
       <c r="C8" s="12">
+        <f>SUM(E8:AAA8)</f>
+        <v>11</v>
+      </c>
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F8" s="14">
+      <c r="G8" s="14">
         <v>20</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H8" s="14">
+      <c r="I8" s="14">
         <v>25</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="J8" s="14">
+      <c r="K8" s="14">
         <v>25</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="L8" s="14">
+      <c r="M8" s="14">
         <v>55</v>
       </c>
-      <c r="M8" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="14">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1749,46 +1863,60 @@
         <v>65</v>
       </c>
       <c r="C9" s="12">
+        <f>SUM(E9:AAA9)</f>
+        <v>15</v>
+      </c>
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D9" s="6">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="14">
         <v>20</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H9" s="14">
+      <c r="I9" s="14">
         <v>25</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="J9" s="14">
+      <c r="K9" s="14">
         <v>25</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="L9" s="14">
+      <c r="M9" s="14">
         <v>55</v>
       </c>
-      <c r="M9" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="O9" s="7">
+        <v>-5</v>
+      </c>
+      <c r="P9" s="14">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1796,46 +1924,57 @@
         <v>61</v>
       </c>
       <c r="C10" s="12">
+        <f>SUM(E10:AAA10)</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
         <v>10</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F10" s="14">
+      <c r="G10" s="14">
         <v>20</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H10" s="14">
+      <c r="I10" s="14">
         <v>25</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="J10" s="14">
+      <c r="K10" s="14">
         <v>25</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="L10" s="14">
+      <c r="M10" s="14">
         <v>55</v>
       </c>
-      <c r="M10" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="P10" s="14">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1843,46 +1982,60 @@
         <v>59</v>
       </c>
       <c r="C11" s="12">
+        <f>SUM(E11:AAA11)</f>
+        <v>32</v>
+      </c>
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D11" s="6">
-        <v>100</v>
-      </c>
-      <c r="E11" s="7">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="E11" s="6">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="2"/>
         <v>-60</v>
       </c>
-      <c r="H11" s="14">
-        <v>100</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="I11" s="14">
+        <v>100</v>
+      </c>
+      <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>-75</v>
       </c>
-      <c r="J11" s="14">
-        <v>100</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="K11" s="14">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7">
         <f t="shared" si="2"/>
         <v>-75</v>
       </c>
-      <c r="L11" s="14">
+      <c r="M11" s="14">
         <v>120</v>
       </c>
-      <c r="M11" s="7">
+      <c r="N11" s="7">
         <f t="shared" si="2"/>
         <v>-150</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="7">
+        <v>12</v>
+      </c>
+      <c r="P11" s="14">
+        <v>140</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="3"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1890,46 +2043,60 @@
         <v>58</v>
       </c>
       <c r="C12" s="12">
+        <f>SUM(E12:AAA12)</f>
+        <v>26</v>
+      </c>
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D12" s="6">
-        <v>100</v>
-      </c>
-      <c r="E12" s="7">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="E12" s="6">
+        <v>100</v>
+      </c>
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="G12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="2"/>
         <v>-60</v>
       </c>
-      <c r="H12" s="14">
-        <v>100</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="I12" s="14">
+        <v>100</v>
+      </c>
+      <c r="J12" s="7">
         <f t="shared" si="2"/>
         <v>-75</v>
       </c>
-      <c r="J12" s="14">
-        <v>100</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="K12" s="14">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7">
         <f t="shared" si="2"/>
         <v>-75</v>
       </c>
-      <c r="L12" s="14">
-        <v>100</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="M12" s="14">
+        <v>100</v>
+      </c>
+      <c r="N12" s="7">
         <f t="shared" si="2"/>
         <v>-150</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="7">
+        <v>16</v>
+      </c>
+      <c r="P12" s="14">
+        <v>150</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="3"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1937,46 +2104,60 @@
         <v>57</v>
       </c>
       <c r="C13" s="12">
+        <f>SUM(E13:AAA13)</f>
+        <v>48</v>
+      </c>
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D13" s="6">
-        <v>100</v>
-      </c>
-      <c r="E13" s="7">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="H13" s="14">
-        <v>100</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="L13" s="14">
-        <v>100</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="I13" s="14">
+        <v>100</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="M13" s="14">
+        <v>100</v>
+      </c>
+      <c r="N13" s="7">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="7">
+        <v>8</v>
+      </c>
+      <c r="P13" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1984,46 +2165,60 @@
         <v>55</v>
       </c>
       <c r="C14" s="12">
+        <f>SUM(E14:AAA14)</f>
+        <v>14</v>
+      </c>
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D14" s="6">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6">
         <v>20</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="F14" s="14">
+      <c r="G14" s="14">
         <v>40</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="H14" s="14">
+      <c r="I14" s="14">
         <v>50</v>
       </c>
-      <c r="I14" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="J14" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="K14" s="14">
         <v>50</v>
       </c>
-      <c r="K14" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="L14" s="14">
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="M14" s="14">
         <v>105</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N14" s="7">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14" s="7">
+        <v>9</v>
+      </c>
+      <c r="P14" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2031,46 +2226,60 @@
         <v>52</v>
       </c>
       <c r="C15" s="12">
+        <f>SUM(E15:AAA15)</f>
+        <v>9</v>
+      </c>
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D15" s="6">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
         <v>10</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F15" s="14">
+      <c r="G15" s="14">
         <v>20</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H15" s="14">
+      <c r="I15" s="14">
         <v>25</v>
       </c>
-      <c r="I15" s="7">
+      <c r="J15" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="J15" s="14">
+      <c r="K15" s="14">
         <v>25</v>
       </c>
-      <c r="K15" s="7">
+      <c r="L15" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="L15" s="14">
+      <c r="M15" s="14">
         <v>55</v>
       </c>
-      <c r="M15" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="O15" s="7">
+        <v>4</v>
+      </c>
+      <c r="P15" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2078,46 +2287,60 @@
         <v>37</v>
       </c>
       <c r="C16" s="12">
+        <f>SUM(E16:AAA16)</f>
+        <v>7</v>
+      </c>
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D16" s="6">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6">
         <v>10</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F16" s="14">
+      <c r="G16" s="14">
         <v>20</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H16" s="14">
+      <c r="I16" s="14">
         <v>25</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="J16" s="14">
+      <c r="K16" s="14">
         <v>25</v>
       </c>
-      <c r="K16" s="7">
+      <c r="L16" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="L16" s="14">
+      <c r="M16" s="14">
         <v>55</v>
       </c>
-      <c r="M16" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="O16" s="7">
+        <v>2</v>
+      </c>
+      <c r="P16" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2125,46 +2348,60 @@
         <v>51</v>
       </c>
       <c r="C17" s="12">
+        <f>SUM(E17:AAA17)</f>
+        <v>24</v>
+      </c>
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D17" s="6">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6">
         <v>200</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="L17" s="14">
+      <c r="I17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="M17" s="14">
         <v>70</v>
       </c>
-      <c r="M17" s="7">
+      <c r="N17" s="7">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" s="7">
+        <v>14</v>
+      </c>
+      <c r="P17" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2172,46 +2409,57 @@
         <v>49</v>
       </c>
       <c r="C18" s="12">
+        <f>SUM(E18:AAA18)</f>
+        <v>30</v>
+      </c>
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D18" s="6">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6">
         <v>200</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="7">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="G18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="L18" s="14">
+      <c r="I18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="M18" s="14">
         <v>70</v>
       </c>
-      <c r="M18" s="7">
+      <c r="N18" s="7">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P18" s="14">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2219,46 +2467,60 @@
         <v>48</v>
       </c>
       <c r="C19" s="12">
+        <f>SUM(E19:AAA19)</f>
+        <v>7</v>
+      </c>
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D19" s="6">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6">
         <v>10</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19" s="7">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F19" s="14">
+      <c r="G19" s="14">
         <v>20</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H19" s="14">
+      <c r="I19" s="14">
         <v>25</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="J19" s="14">
+      <c r="K19" s="14">
         <v>25</v>
       </c>
-      <c r="K19" s="7">
+      <c r="L19" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="L19" s="14">
+      <c r="M19" s="14">
         <v>55</v>
       </c>
-      <c r="M19" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="O19" s="7">
+        <v>2</v>
+      </c>
+      <c r="P19" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2266,46 +2528,57 @@
         <v>46</v>
       </c>
       <c r="C20" s="12">
+        <f>SUM(E20:AAA20)</f>
+        <v>60</v>
+      </c>
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D20" s="6">
-        <v>100</v>
-      </c>
-      <c r="E20" s="7">
+        <v>60</v>
+      </c>
+      <c r="E20" s="6">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="G20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="I20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="K20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="L20" s="14">
+      <c r="M20" s="14">
         <v>40</v>
       </c>
-      <c r="M20" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="P20" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2313,46 +2586,60 @@
         <v>45</v>
       </c>
       <c r="C21" s="12">
+        <f>SUM(E21:AAA21)</f>
+        <v>50</v>
+      </c>
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D21" s="6">
-        <v>100</v>
-      </c>
-      <c r="E21" s="7">
+        <v>50</v>
+      </c>
+      <c r="E21" s="6">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="I21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="K21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="7">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="L21" s="14">
+      <c r="M21" s="14">
         <v>40</v>
       </c>
-      <c r="M21" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="O21" s="7">
+        <v>-10</v>
+      </c>
+      <c r="P21" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2360,42 +2647,53 @@
         <v>43</v>
       </c>
       <c r="C22" s="12">
+        <f>SUM(E22:AAA22)</f>
+        <v>40</v>
+      </c>
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D22" s="6">
-        <v>100</v>
-      </c>
-      <c r="E22" s="7">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6">
+        <v>100</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="G22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" si="2"/>
         <v>-40</v>
       </c>
-      <c r="H22" s="14">
-        <v>100</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="L22" s="14">
-        <v>100</v>
-      </c>
-      <c r="M22" s="7">
-        <f t="shared" si="2"/>
+      <c r="I22" s="14">
+        <v>100</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="M22" s="14">
+        <v>100</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P22" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
     </row>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Github\MotorController\board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elee/Projects/SaintGimp/MotorController/board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DEF07E-10B8-492C-9503-00692F252BAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35599A4E-C858-3D46-BD46-207A66E5E5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="105">
   <si>
     <t>Qty</t>
   </si>
@@ -337,7 +343,10 @@
     <t>Adjust</t>
   </si>
   <si>
-    <t>Unit Overage</t>
+    <t>PCB 3.1.1</t>
+  </si>
+  <si>
+    <t>Unit Inventory</t>
   </si>
 </sst>
 </file>
@@ -418,12 +427,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -438,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -460,6 +475,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,22 +794,22 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="55.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +835,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -844,7 +861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -870,7 +887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -896,7 +913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -922,7 +939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -948,7 +965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -971,7 +988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -994,7 +1011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1017,7 +1034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1040,7 +1057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1063,7 +1080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1089,7 +1106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1115,7 +1132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1141,7 +1158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1164,7 +1181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1187,7 +1204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1210,7 +1227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1233,7 +1250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1256,7 +1273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1279,7 +1296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1302,7 +1319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1322,7 +1339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1342,11 +1359,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="16" t="s">
         <v>99</v>
       </c>
       <c r="F25" s="3"/>
@@ -1359,33 +1376,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="12"/>
-    <col min="4" max="4" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
-    <col min="11" max="11" width="9.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="12"/>
+    <col min="4" max="4" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="7"/>
+    <col min="9" max="9" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="7"/>
+    <col min="11" max="11" width="9.5" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="7"/>
-    <col min="13" max="13" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="7"/>
-    <col min="16" max="16" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" style="7"/>
+    <col min="16" max="16" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1413,7 @@
         <v>100</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="9">
         <v>42215</v>
@@ -1435,10 +1452,13 @@
         <v>43578</v>
       </c>
       <c r="Q1" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="R1" s="9">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1446,12 +1466,12 @@
         <v>97</v>
       </c>
       <c r="C2" s="12">
-        <f>SUM(E2:AAA2)</f>
-        <v>21</v>
+        <f t="shared" ref="C2:C22" si="0">SUM(E2:AAA2)</f>
+        <v>7</v>
       </c>
       <c r="D2" s="12">
         <f>C2/$A2</f>
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -1492,10 +1512,11 @@
       </c>
       <c r="Q2" s="7">
         <f>-(Q$1*$A2)</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-114</v>
+      </c>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1503,12 +1524,12 @@
         <v>86</v>
       </c>
       <c r="C3" s="12">
-        <f>SUM(E3:AAA3)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="D3" s="12">
         <f>C3/$A3</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
@@ -1550,10 +1571,11 @@
       </c>
       <c r="Q3" s="7">
         <f>-(Q$1*$A3)</f>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-57</v>
+      </c>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1561,18 +1583,18 @@
         <v>74</v>
       </c>
       <c r="C4" s="12">
-        <f>SUM(E4:AAA4)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D22" si="0">C4/$A4</f>
-        <v>16.5</v>
+        <f t="shared" ref="D4:D23" si="1">C4/$A4</f>
+        <v>9.5</v>
       </c>
       <c r="E4" s="6">
         <v>100</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F22" si="1">-(F$1*$A4)</f>
+        <f t="shared" ref="F4:F23" si="2">-(F$1*$A4)</f>
         <v>-20</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -1611,10 +1633,11 @@
       </c>
       <c r="Q4" s="7">
         <f>-(Q$1*$A4)</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-114</v>
+      </c>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1622,46 +1645,46 @@
         <v>72</v>
       </c>
       <c r="C5" s="12">
-        <f>SUM(E5:AAA5)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="G5" s="14">
         <v>20</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" ref="H5:N22" si="2">-(H$1*$A5)</f>
+        <f t="shared" ref="H5:N23" si="3">-(H$1*$A5)</f>
         <v>-20</v>
       </c>
       <c r="I5" s="14">
         <v>50</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-25</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>101</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-25</v>
       </c>
       <c r="M5" s="14">
         <v>55</v>
       </c>
       <c r="N5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-50</v>
       </c>
       <c r="O5" s="7">
@@ -1671,11 +1694,12 @@
         <v>50</v>
       </c>
       <c r="Q5" s="7">
-        <f t="shared" ref="Q5:Q22" si="3">-(Q$1*$A5)</f>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q5:Q22" si="4">-(Q$1*$A5)</f>
+        <v>-57</v>
+      </c>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1683,46 +1707,46 @@
         <v>69</v>
       </c>
       <c r="C6" s="12">
-        <f>SUM(E6:AAA6)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <v>100</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>101</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="I6" s="14">
         <v>100</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-50</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>101</v>
       </c>
       <c r="L6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-50</v>
       </c>
       <c r="M6" s="14">
         <v>100</v>
       </c>
       <c r="N6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-100</v>
       </c>
       <c r="O6" s="7">
@@ -1732,11 +1756,12 @@
         <v>100</v>
       </c>
       <c r="Q6" s="7">
-        <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-114</v>
+      </c>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1744,957 +1769,1024 @@
         <v>68</v>
       </c>
       <c r="C7" s="12">
-        <f>SUM(E7:AAA7)</f>
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="6">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="M7" s="14">
+        <v>100</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="4"/>
+        <v>-57</v>
+      </c>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G8" s="14">
         <v>20</v>
       </c>
-      <c r="D7" s="12">
+      <c r="H8" s="7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I8" s="14">
+        <v>25</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="K8" s="14">
+        <v>25</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="M8" s="14">
+        <v>55</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="14">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="4"/>
+        <v>-57</v>
+      </c>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G9" s="14">
         <v>20</v>
       </c>
-      <c r="E7" s="6">
-        <v>100</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="H9" s="7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I9" s="14">
+        <v>25</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="K9" s="14">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="M9" s="14">
+        <v>55</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="O9" s="7">
+        <v>-5</v>
+      </c>
+      <c r="P9" s="14">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="4"/>
+        <v>-57</v>
+      </c>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="12">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G10" s="14">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I10" s="14">
+        <v>25</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="K10" s="14">
+        <v>25</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="M10" s="14">
+        <v>55</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="P10" s="14">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="4"/>
+        <v>-57</v>
+      </c>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="E11" s="6">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="3"/>
+        <v>-60</v>
+      </c>
+      <c r="I11" s="14">
+        <v>100</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="3"/>
+        <v>-75</v>
+      </c>
+      <c r="K11" s="14">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="3"/>
+        <v>-75</v>
+      </c>
+      <c r="M11" s="14">
+        <v>120</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="3"/>
+        <v>-150</v>
+      </c>
+      <c r="O11" s="7">
+        <v>12</v>
+      </c>
+      <c r="P11" s="14">
+        <v>140</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="4"/>
+        <v>-171</v>
+      </c>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E12" s="6">
+        <v>100</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="3"/>
+        <v>-60</v>
+      </c>
+      <c r="I12" s="14">
+        <v>100</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="3"/>
+        <v>-75</v>
+      </c>
+      <c r="K12" s="14">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="3"/>
+        <v>-75</v>
+      </c>
+      <c r="M12" s="14">
+        <v>100</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="3"/>
+        <v>-150</v>
+      </c>
+      <c r="O12" s="7">
+        <v>16</v>
+      </c>
+      <c r="P12" s="14">
+        <v>150</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="4"/>
+        <v>-171</v>
+      </c>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E13" s="6">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="M7" s="14">
-        <v>100</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" si="2"/>
+      <c r="G13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="I13" s="14">
+        <v>100</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="K13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="12">
-        <f>SUM(E8:AAA8)</f>
-        <v>11</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="M13" s="14">
+        <v>100</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="O13" s="7">
+        <v>8</v>
+      </c>
+      <c r="P13" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="4"/>
+        <v>-114</v>
+      </c>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="12">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
         <v>20</v>
       </c>
-      <c r="H8" s="7">
+      <c r="F14" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="I8" s="14">
+      <c r="G14" s="14">
+        <v>40</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="I14" s="14">
+        <v>50</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="K14" s="14">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="M14" s="14">
+        <v>105</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="O14" s="7">
+        <v>9</v>
+      </c>
+      <c r="P14" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="4"/>
+        <v>-114</v>
+      </c>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G15" s="14">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I15" s="14">
         <v>25</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J15" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="K15" s="14">
+        <v>25</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="M15" s="14">
+        <v>55</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="O15" s="7">
+        <v>4</v>
+      </c>
+      <c r="P15" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="7">
+        <f t="shared" si="4"/>
+        <v>-57</v>
+      </c>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7">
         <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G16" s="14">
+        <v>20</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I16" s="14">
+        <v>25</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K16" s="14">
         <v>25</v>
       </c>
-      <c r="L8" s="7">
-        <f t="shared" si="2"/>
+      <c r="L16" s="7">
+        <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M16" s="14">
         <v>55</v>
       </c>
-      <c r="N8" s="7">
-        <f t="shared" si="2"/>
+      <c r="N16" s="7">
+        <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="P8" s="14">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="7">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="12">
-        <f>SUM(E9:AAA9)</f>
-        <v>15</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="O16" s="7">
+        <v>2</v>
+      </c>
+      <c r="P16" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="4"/>
+        <v>-57</v>
+      </c>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E9" s="6">
         <v>10</v>
       </c>
-      <c r="F9" s="7">
+      <c r="D17" s="12">
         <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="G9" s="14">
-        <v>20</v>
-      </c>
-      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="I9" s="14">
-        <v>25</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="K9" s="14">
-        <v>25</v>
-      </c>
-      <c r="L9" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="M9" s="14">
-        <v>55</v>
-      </c>
-      <c r="N9" s="7">
-        <f t="shared" si="2"/>
+      <c r="G17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O9" s="7">
-        <v>-5</v>
-      </c>
-      <c r="P9" s="14">
-        <v>65</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="K17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="12">
-        <f>SUM(E10:AAA10)</f>
-        <v>10</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="M17" s="14">
+        <v>70</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="O17" s="7">
+        <v>14</v>
+      </c>
+      <c r="P17" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="4"/>
+        <v>-114</v>
+      </c>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="G10" s="14">
-        <v>20</v>
-      </c>
-      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
+        <v>200</v>
+      </c>
+      <c r="F18" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="I10" s="14">
+      <c r="G18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="M18" s="14">
+        <v>70</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="P18" s="14">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="4"/>
+        <v>-114</v>
+      </c>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G19" s="14">
+        <v>20</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I19" s="14">
         <v>25</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J19" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="K19" s="14">
+        <v>25</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="M19" s="14">
+        <v>55</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="O19" s="7">
+        <v>2</v>
+      </c>
+      <c r="P19" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="4"/>
+        <v>-57</v>
+      </c>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E20" s="6">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
         <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="K10" s="14">
-        <v>25</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="K20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="M20" s="14">
+        <v>40</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="P20" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="4"/>
+        <v>-57</v>
+      </c>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E21" s="6">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7">
         <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="M10" s="14">
-        <v>55</v>
-      </c>
-      <c r="N10" s="7">
-        <f t="shared" si="2"/>
+      <c r="K21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="M21" s="14">
+        <v>40</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="P10" s="14">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="7">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="12">
-        <f>SUM(E11:AAA11)</f>
-        <v>32</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="O21" s="7">
+        <v>-10</v>
+      </c>
+      <c r="P21" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="4"/>
+        <v>-57</v>
+      </c>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="12">
         <f t="shared" si="0"/>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="E11" s="6">
-        <v>100</v>
-      </c>
-      <c r="F11" s="7">
+        <v>26</v>
+      </c>
+      <c r="D22" s="12">
         <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="2"/>
-        <v>-60</v>
-      </c>
-      <c r="I11" s="14">
-        <v>100</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="2"/>
-        <v>-75</v>
-      </c>
-      <c r="K11" s="14">
-        <v>100</v>
-      </c>
-      <c r="L11" s="7">
-        <f t="shared" si="2"/>
-        <v>-75</v>
-      </c>
-      <c r="M11" s="14">
-        <v>120</v>
-      </c>
-      <c r="N11" s="7">
-        <f t="shared" si="2"/>
-        <v>-150</v>
-      </c>
-      <c r="O11" s="7">
-        <v>12</v>
-      </c>
-      <c r="P11" s="14">
-        <v>140</v>
-      </c>
-      <c r="Q11" s="7">
-        <f t="shared" si="3"/>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="12">
-        <f>SUM(E12:AAA12)</f>
-        <v>26</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="E12" s="6">
-        <v>100</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="2"/>
-        <v>-60</v>
-      </c>
-      <c r="I12" s="14">
-        <v>100</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="2"/>
-        <v>-75</v>
-      </c>
-      <c r="K12" s="14">
-        <v>100</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="2"/>
-        <v>-75</v>
-      </c>
-      <c r="M12" s="14">
-        <v>100</v>
-      </c>
-      <c r="N12" s="7">
-        <f t="shared" si="2"/>
-        <v>-150</v>
-      </c>
-      <c r="O12" s="7">
-        <v>16</v>
-      </c>
-      <c r="P12" s="14">
-        <v>150</v>
-      </c>
-      <c r="Q12" s="7">
-        <f t="shared" si="3"/>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="12">
-        <f>SUM(E13:AAA13)</f>
-        <v>48</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E13" s="6">
-        <v>100</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="2"/>
-        <v>-40</v>
-      </c>
-      <c r="I13" s="14">
-        <v>100</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="M13" s="14">
-        <v>100</v>
-      </c>
-      <c r="N13" s="7">
-        <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="O13" s="7">
-        <v>8</v>
-      </c>
-      <c r="P13" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="7">
-        <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="12">
-        <f>SUM(E14:AAA14)</f>
-        <v>14</v>
-      </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E14" s="6">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="G14" s="14">
-        <v>40</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="2"/>
-        <v>-40</v>
-      </c>
-      <c r="I14" s="14">
-        <v>50</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="K14" s="14">
-        <v>50</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="M14" s="14">
-        <v>105</v>
-      </c>
-      <c r="N14" s="7">
-        <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="O14" s="7">
-        <v>9</v>
-      </c>
-      <c r="P14" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="7">
-        <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="12">
-        <f>SUM(E15:AAA15)</f>
-        <v>9</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E15" s="6">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="G15" s="14">
-        <v>20</v>
-      </c>
-      <c r="H15" s="7">
+        <v>13</v>
+      </c>
+      <c r="E22" s="6">
+        <v>100</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="I15" s="14">
-        <v>25</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="G22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="I22" s="14">
+        <v>100</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="M22" s="14">
+        <v>100</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="3"/>
+        <v>-100</v>
+      </c>
+      <c r="P22" s="14">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="4"/>
+        <v>-114</v>
+      </c>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="12">
+        <f>SUM(E23:AAA23)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
         <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="K15" s="14">
-        <v>25</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="2"/>
+      <c r="L23" s="7">
+        <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="M15" s="14">
-        <v>55</v>
-      </c>
-      <c r="N15" s="7">
-        <f t="shared" si="2"/>
+      <c r="N23" s="7">
+        <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O15" s="7">
-        <v>4</v>
-      </c>
-      <c r="P15" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="7">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12">
-        <f>SUM(E16:AAA16)</f>
-        <v>7</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E16" s="6">
-        <v>10</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="G16" s="14">
-        <v>20</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="I16" s="14">
-        <v>25</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="K16" s="14">
-        <v>25</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="M16" s="14">
-        <v>55</v>
-      </c>
-      <c r="N16" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="O16" s="7">
-        <v>2</v>
-      </c>
-      <c r="P16" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="7">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="12">
-        <f>SUM(E17:AAA17)</f>
-        <v>24</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E17" s="6">
-        <v>200</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="2"/>
-        <v>-40</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="M17" s="14">
-        <v>70</v>
-      </c>
-      <c r="N17" s="7">
-        <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="O17" s="7">
-        <v>14</v>
-      </c>
-      <c r="P17" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="7">
-        <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="12">
-        <f>SUM(E18:AAA18)</f>
-        <v>30</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E18" s="6">
-        <v>200</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="2"/>
-        <v>-40</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="M18" s="14">
-        <v>70</v>
-      </c>
-      <c r="N18" s="7">
-        <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="P18" s="14">
-        <v>120</v>
-      </c>
-      <c r="Q18" s="7">
-        <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="12">
-        <f>SUM(E19:AAA19)</f>
-        <v>7</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E19" s="6">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="G19" s="14">
-        <v>20</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="I19" s="14">
-        <v>25</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="K19" s="14">
-        <v>25</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="M19" s="14">
-        <v>55</v>
-      </c>
-      <c r="N19" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="O19" s="7">
-        <v>2</v>
-      </c>
-      <c r="P19" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="7">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="12">
-        <f>SUM(E20:AAA20)</f>
-        <v>60</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E20" s="6">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="M20" s="14">
-        <v>40</v>
-      </c>
-      <c r="N20" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="P20" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="12">
-        <f>SUM(E21:AAA21)</f>
-        <v>50</v>
-      </c>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E21" s="6">
-        <v>100</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="7">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="M21" s="14">
-        <v>40</v>
-      </c>
-      <c r="N21" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="O21" s="7">
-        <v>-10</v>
-      </c>
-      <c r="P21" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="7">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="12">
-        <f>SUM(E22:AAA22)</f>
-        <v>40</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E22" s="6">
-        <v>100</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="2"/>
-        <v>-40</v>
-      </c>
-      <c r="I22" s="14">
-        <v>100</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="7">
-        <f t="shared" si="2"/>
-        <v>-50</v>
-      </c>
-      <c r="M22" s="14">
-        <v>100</v>
-      </c>
-      <c r="N22" s="7">
-        <f t="shared" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="P22" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="7">
-        <f t="shared" si="3"/>
-        <v>-100</v>
+      <c r="O23" s="7">
+        <f>58+130</f>
+        <v>188</v>
+      </c>
+      <c r="Q23" s="7">
+        <f>-(Q$1*$A23)</f>
+        <v>-57</v>
+      </c>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D25" s="15">
+        <f>MIN(D2:D23)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elee/Projects/SaintGimp/MotorController/board/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SaintGimp\MotorController\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35599A4E-C858-3D46-BD46-207A66E5E5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263659E4-6118-49B0-9811-103FA1CCCAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="4650" windowWidth="23025" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Inventory" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="132">
   <si>
     <t>Qty</t>
   </si>
@@ -347,6 +351,87 @@
   </si>
   <si>
     <t>Unit Inventory</t>
+  </si>
+  <si>
+    <t>Triac</t>
+  </si>
+  <si>
+    <t>Substitutes</t>
+  </si>
+  <si>
+    <t>MF0207FTE52-10K</t>
+  </si>
+  <si>
+    <t>10K resistor</t>
+  </si>
+  <si>
+    <t>22V zener</t>
+  </si>
+  <si>
+    <t>27V zener</t>
+  </si>
+  <si>
+    <t>1K resistor</t>
+  </si>
+  <si>
+    <t>4A fuse</t>
+  </si>
+  <si>
+    <t>0234004.MXP</t>
+  </si>
+  <si>
+    <t>Fuse clip</t>
+  </si>
+  <si>
+    <t>SL151A200JAB</t>
+  </si>
+  <si>
+    <t>0.1uF capacitor</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>DIP socket</t>
+  </si>
+  <si>
+    <t>68R resistor</t>
+  </si>
+  <si>
+    <t>220R resistor</t>
+  </si>
+  <si>
+    <t>50YXJ1000M16X25</t>
+  </si>
+  <si>
+    <t>1000uF capacitor</t>
+  </si>
+  <si>
+    <t>10V zener</t>
+  </si>
+  <si>
+    <t>576K resistor</t>
+  </si>
+  <si>
+    <t>P-MOSFET</t>
+  </si>
+  <si>
+    <t>10uF capacitor</t>
+  </si>
+  <si>
+    <t>1uF capacitor</t>
+  </si>
+  <si>
+    <t>DC converter</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>20pF capacitor</t>
   </si>
 </sst>
 </file>
@@ -797,19 +882,19 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
-    <col min="8" max="8" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -861,7 +946,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -887,7 +972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -913,7 +998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -939,7 +1024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -965,7 +1050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -988,7 +1073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1011,7 +1096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1034,7 +1119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1057,7 +1142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1080,7 +1165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1106,7 +1191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1132,7 +1217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1158,7 +1243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1181,7 +1266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1204,7 +1289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1227,7 +1312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1250,7 +1335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1273,7 +1358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1296,7 +1381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1319,7 +1404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1339,7 +1424,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1359,10 +1444,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>99</v>
       </c>
@@ -1376,119 +1461,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="12"/>
-    <col min="4" max="4" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="7"/>
-    <col min="9" max="9" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="7"/>
-    <col min="11" max="11" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="7"/>
-    <col min="13" max="13" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.1640625" style="7"/>
-    <col min="16" max="16" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="7"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="12"/>
+    <col min="6" max="6" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="7"/>
+    <col min="15" max="15" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="7"/>
+    <col min="18" max="18" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="7"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="9">
+      <c r="G1" s="9">
         <v>42215</v>
       </c>
-      <c r="F1" s="10">
+      <c r="H1" s="10">
         <v>10</v>
       </c>
-      <c r="G1" s="13">
+      <c r="I1" s="13">
         <v>42304</v>
       </c>
-      <c r="H1" s="10">
+      <c r="J1" s="10">
         <v>20</v>
       </c>
-      <c r="I1" s="13">
+      <c r="K1" s="13">
         <v>42464</v>
-      </c>
-      <c r="J1" s="10">
-        <v>25</v>
-      </c>
-      <c r="K1" s="13">
-        <v>42625</v>
       </c>
       <c r="L1" s="10">
         <v>25</v>
       </c>
       <c r="M1" s="13">
+        <v>42625</v>
+      </c>
+      <c r="N1" s="10">
+        <v>25</v>
+      </c>
+      <c r="O1" s="13">
         <v>42992</v>
       </c>
-      <c r="N1" s="10">
+      <c r="P1" s="10">
         <v>50</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="13">
+      <c r="R1" s="13">
         <v>43578</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="S1" s="10">
         <v>57</v>
       </c>
-      <c r="R1" s="9">
+      <c r="T1" s="9">
         <v>44460</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="12">
-        <f t="shared" ref="C2:C22" si="0">SUM(E2:AAA2)</f>
-        <v>7</v>
-      </c>
-      <c r="D2" s="12">
-        <f>C2/$A2</f>
-        <v>3.5</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="E2" s="12">
+        <f t="shared" ref="E2:E22" si="0">SUM(G2:AAC2)</f>
+        <v>127</v>
+      </c>
+      <c r="F2" s="12">
+        <f>E2/$A2</f>
+        <v>63.5</v>
+      </c>
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="I2" s="14">
         <v>40</v>
-      </c>
-      <c r="H2" s="7">
-        <f>-(H$1*$A2)</f>
-        <v>-40</v>
-      </c>
-      <c r="I2" s="14">
-        <v>50</v>
       </c>
       <c r="J2" s="7">
         <f>-(J$1*$A2)</f>
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="K2" s="14">
         <v>50</v>
@@ -1498,59 +1588,64 @@
         <v>-50</v>
       </c>
       <c r="M2" s="14">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="N2" s="7">
         <f>-(N$1*$A2)</f>
+        <v>-50</v>
+      </c>
+      <c r="O2" s="14">
+        <v>105</v>
+      </c>
+      <c r="P2" s="7">
+        <f>-(P$1*$A2)</f>
         <v>-100</v>
       </c>
-      <c r="O2" s="7">
+      <c r="Q2" s="7">
         <v>6</v>
       </c>
-      <c r="P2" s="14">
+      <c r="R2" s="14">
         <v>110</v>
       </c>
-      <c r="Q2" s="7">
-        <f>-(Q$1*$A2)</f>
+      <c r="S2" s="7">
+        <f>-(S$1*$A2)</f>
         <v>-114</v>
       </c>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T2" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="12">
+      <c r="E3" s="12">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D3" s="12">
-        <f>C3/$A3</f>
-        <v>13</v>
-      </c>
-      <c r="E3" s="6">
+        <v>63</v>
+      </c>
+      <c r="F3" s="12">
+        <f>E3/$A3</f>
+        <v>63</v>
+      </c>
+      <c r="G3" s="6">
         <v>200</v>
-      </c>
-      <c r="F3" s="7">
-        <f>-(F$1*$A3)</f>
-        <v>-10</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="H3" s="7">
         <f>-(H$1*$A3)</f>
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>101</v>
       </c>
       <c r="J3" s="7">
         <f>-(J$1*$A3)</f>
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>101</v>
@@ -1564,297 +1659,325 @@
       </c>
       <c r="N3" s="7">
         <f>-(N$1*$A3)</f>
+        <v>-25</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="7">
+        <f>-(P$1*$A3)</f>
         <v>-50</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q3" s="7">
-        <f>-(Q$1*$A3)</f>
+      <c r="R3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="7">
+        <f>-(S$1*$A3)</f>
         <v>-57</v>
       </c>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T3" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="12">
+      <c r="E4" s="12">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D4" s="12">
-        <f t="shared" ref="D4:D23" si="1">C4/$A4</f>
-        <v>9.5</v>
-      </c>
-      <c r="E4" s="6">
-        <v>100</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F23" si="2">-(F$1*$A4)</f>
+        <v>139</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F23" si="1">E4/$A4</f>
+        <v>69.5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>100</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H23" si="2">-(H$1*$A4)</f>
         <v>-20</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="7">
-        <f>-(H$1*$A4)</f>
-        <v>-40</v>
-      </c>
-      <c r="I4" s="14">
-        <v>100</v>
+      <c r="I4" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="J4" s="7">
         <f>-(J$1*$A4)</f>
-        <v>-50</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>101</v>
+        <v>-40</v>
+      </c>
+      <c r="K4" s="14">
+        <v>100</v>
       </c>
       <c r="L4" s="7">
         <f>-(L$1*$A4)</f>
         <v>-50</v>
       </c>
-      <c r="M4" s="14">
-        <v>100</v>
+      <c r="M4" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="N4" s="7">
         <f>-(N$1*$A4)</f>
+        <v>-50</v>
+      </c>
+      <c r="O4" s="14">
+        <v>100</v>
+      </c>
+      <c r="P4" s="7">
+        <f>-(P$1*$A4)</f>
         <v>-100</v>
       </c>
-      <c r="O4" s="7">
+      <c r="Q4" s="7">
         <v>-7</v>
       </c>
-      <c r="P4" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="7">
-        <f>-(Q$1*$A4)</f>
+      <c r="R4" s="14">
+        <v>100</v>
+      </c>
+      <c r="S4" s="7">
+        <f>-(S$1*$A4)</f>
         <v>-114</v>
       </c>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T4" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="12">
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
+        <v>60</v>
+      </c>
+      <c r="F5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
+        <v>60</v>
+      </c>
+      <c r="G5" s="6">
         <v>10</v>
       </c>
-      <c r="F5" s="7">
+      <c r="H5" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G5" s="14">
+      <c r="I5" s="14">
         <v>20</v>
       </c>
-      <c r="H5" s="7">
-        <f t="shared" ref="H5:N23" si="3">-(H$1*$A5)</f>
+      <c r="J5" s="7">
+        <f t="shared" ref="J5:P23" si="3">-(J$1*$A5)</f>
         <v>-20</v>
       </c>
-      <c r="I5" s="14">
+      <c r="K5" s="14">
         <v>50</v>
       </c>
-      <c r="J5" s="7">
+      <c r="L5" s="7">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="M5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="7">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="M5" s="14">
+      <c r="O5" s="14">
         <v>55</v>
       </c>
-      <c r="N5" s="7">
+      <c r="P5" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O5" s="7">
+      <c r="Q5" s="7">
         <v>2</v>
       </c>
-      <c r="P5" s="14">
+      <c r="R5" s="14">
         <v>50</v>
       </c>
-      <c r="Q5" s="7">
-        <f t="shared" ref="Q5:Q22" si="4">-(Q$1*$A5)</f>
+      <c r="S5" s="7">
+        <f t="shared" ref="S5:S22" si="4">-(S$1*$A5)</f>
         <v>-57</v>
       </c>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T5" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="12">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D6" s="12">
+        <v>130</v>
+      </c>
+      <c r="F6" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>100</v>
-      </c>
-      <c r="F6" s="7">
+        <v>65</v>
+      </c>
+      <c r="G6" s="6">
+        <v>100</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="I6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="7">
         <f t="shared" si="3"/>
         <v>-40</v>
       </c>
-      <c r="I6" s="14">
-        <v>100</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="K6" s="14">
+        <v>100</v>
+      </c>
+      <c r="L6" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="M6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="M6" s="14">
-        <v>100</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="O6" s="14">
+        <v>100</v>
+      </c>
+      <c r="P6" s="7">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="O6" s="7">
+      <c r="Q6" s="7">
         <v>-16</v>
       </c>
-      <c r="P6" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="7">
+      <c r="R6" s="14">
+        <v>100</v>
+      </c>
+      <c r="S6" s="7">
         <f t="shared" si="4"/>
         <v>-114</v>
       </c>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T6" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="12">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D7" s="12">
+        <v>113</v>
+      </c>
+      <c r="F7" s="12">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="E7" s="6">
-        <v>100</v>
-      </c>
-      <c r="F7" s="7">
+        <v>113</v>
+      </c>
+      <c r="G7" s="6">
+        <v>100</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="I7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="K7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="7">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="M7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="7">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="M7" s="14">
-        <v>100</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="O7" s="14">
+        <v>100</v>
+      </c>
+      <c r="P7" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="S7" s="7">
         <f t="shared" si="4"/>
         <v>-57</v>
       </c>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T7" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="12">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="12">
+        <v>64</v>
+      </c>
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E8" s="6">
+        <v>64</v>
+      </c>
+      <c r="G8" s="6">
         <v>10</v>
       </c>
-      <c r="F8" s="7">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G8" s="14">
+      <c r="I8" s="14">
         <v>20</v>
       </c>
-      <c r="H8" s="7">
+      <c r="J8" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
-      </c>
-      <c r="I8" s="14">
-        <v>25</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="3"/>
-        <v>-25</v>
       </c>
       <c r="K8" s="14">
         <v>25</v>
@@ -1864,59 +1987,64 @@
         <v>-25</v>
       </c>
       <c r="M8" s="14">
+        <v>25</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="O8" s="14">
         <v>55</v>
       </c>
-      <c r="N8" s="7">
+      <c r="P8" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O8" s="7">
+      <c r="Q8" s="7">
         <v>1</v>
       </c>
-      <c r="P8" s="14">
+      <c r="R8" s="14">
         <v>55</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="S8" s="7">
         <f t="shared" si="4"/>
         <v>-57</v>
       </c>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T8" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="12">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D9" s="12">
+        <v>68</v>
+      </c>
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E9" s="6">
+        <v>68</v>
+      </c>
+      <c r="G9" s="6">
         <v>10</v>
       </c>
-      <c r="F9" s="7">
+      <c r="H9" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G9" s="14">
+      <c r="I9" s="14">
         <v>20</v>
       </c>
-      <c r="H9" s="7">
+      <c r="J9" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
-      </c>
-      <c r="I9" s="14">
-        <v>25</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="3"/>
-        <v>-25</v>
       </c>
       <c r="K9" s="14">
         <v>25</v>
@@ -1926,59 +2054,64 @@
         <v>-25</v>
       </c>
       <c r="M9" s="14">
+        <v>25</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="O9" s="14">
         <v>55</v>
       </c>
-      <c r="N9" s="7">
+      <c r="P9" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O9" s="7">
+      <c r="Q9" s="7">
         <v>-5</v>
       </c>
-      <c r="P9" s="14">
+      <c r="R9" s="14">
         <v>65</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="S9" s="7">
         <f t="shared" si="4"/>
         <v>-57</v>
       </c>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T9" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="12">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D10" s="12">
+        <v>63</v>
+      </c>
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E10" s="6">
+        <v>63</v>
+      </c>
+      <c r="G10" s="6">
         <v>10</v>
       </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G10" s="14">
+      <c r="I10" s="14">
         <v>20</v>
       </c>
-      <c r="H10" s="7">
+      <c r="J10" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
-      </c>
-      <c r="I10" s="14">
-        <v>25</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="3"/>
-        <v>-25</v>
       </c>
       <c r="K10" s="14">
         <v>25</v>
@@ -1988,242 +2121,265 @@
         <v>-25</v>
       </c>
       <c r="M10" s="14">
+        <v>25</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="O10" s="14">
         <v>55</v>
       </c>
-      <c r="N10" s="7">
+      <c r="P10" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="P10" s="14">
+      <c r="R10" s="14">
         <v>55</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="S10" s="7">
         <f t="shared" si="4"/>
         <v>-57</v>
       </c>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T10" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="12">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D11" s="12">
+        <v>191</v>
+      </c>
+      <c r="F11" s="12">
         <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="E11" s="6">
-        <v>100</v>
-      </c>
-      <c r="F11" s="7">
+        <v>63.666666666666664</v>
+      </c>
+      <c r="G11" s="6">
+        <v>100</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="2"/>
         <v>-30</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="I11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="7">
         <f t="shared" si="3"/>
         <v>-60</v>
       </c>
-      <c r="I11" s="14">
-        <v>100</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="K11" s="14">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7">
         <f t="shared" si="3"/>
         <v>-75</v>
       </c>
-      <c r="K11" s="14">
-        <v>100</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="M11" s="14">
+        <v>100</v>
+      </c>
+      <c r="N11" s="7">
         <f t="shared" si="3"/>
         <v>-75</v>
       </c>
-      <c r="M11" s="14">
+      <c r="O11" s="14">
         <v>120</v>
       </c>
-      <c r="N11" s="7">
+      <c r="P11" s="7">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="O11" s="7">
+      <c r="Q11" s="7">
         <v>12</v>
       </c>
-      <c r="P11" s="14">
+      <c r="R11" s="14">
         <v>140</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="S11" s="7">
         <f t="shared" si="4"/>
         <v>-171</v>
       </c>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T11" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="12">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="12">
+        <v>185</v>
+      </c>
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="E12" s="6">
-        <v>100</v>
-      </c>
-      <c r="F12" s="7">
+        <v>61.666666666666664</v>
+      </c>
+      <c r="G12" s="6">
+        <v>100</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="2"/>
         <v>-30</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="I12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="7">
         <f t="shared" si="3"/>
         <v>-60</v>
       </c>
-      <c r="I12" s="14">
-        <v>100</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="K12" s="14">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7">
         <f t="shared" si="3"/>
         <v>-75</v>
       </c>
-      <c r="K12" s="14">
-        <v>100</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="M12" s="14">
+        <v>100</v>
+      </c>
+      <c r="N12" s="7">
         <f t="shared" si="3"/>
         <v>-75</v>
       </c>
-      <c r="M12" s="14">
-        <v>100</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="O12" s="14">
+        <v>100</v>
+      </c>
+      <c r="P12" s="7">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="O12" s="7">
+      <c r="Q12" s="7">
         <v>16</v>
       </c>
-      <c r="P12" s="14">
+      <c r="R12" s="14">
         <v>150</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="S12" s="7">
         <f t="shared" si="4"/>
         <v>-171</v>
       </c>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T12" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="12">
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="D13" s="12">
+        <v>134</v>
+      </c>
+      <c r="F13" s="12">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="E13" s="6">
-        <v>100</v>
-      </c>
-      <c r="F13" s="7">
+        <v>67</v>
+      </c>
+      <c r="G13" s="6">
+        <v>100</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="I13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="7">
         <f t="shared" si="3"/>
         <v>-40</v>
       </c>
-      <c r="I13" s="14">
-        <v>100</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="K13" s="14">
+        <v>100</v>
+      </c>
+      <c r="L13" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="M13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="M13" s="14">
-        <v>100</v>
-      </c>
-      <c r="N13" s="7">
+      <c r="O13" s="14">
+        <v>100</v>
+      </c>
+      <c r="P13" s="7">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="O13" s="7">
+      <c r="Q13" s="7">
         <v>8</v>
       </c>
-      <c r="P13" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="R13" s="14">
+        <v>100</v>
+      </c>
+      <c r="S13" s="7">
         <f t="shared" si="4"/>
         <v>-114</v>
       </c>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T13" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="12">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
+        <v>120</v>
+      </c>
+      <c r="F14" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
+        <v>60</v>
+      </c>
+      <c r="G14" s="6">
         <v>20</v>
       </c>
-      <c r="F14" s="7">
+      <c r="H14" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G14" s="14">
+      <c r="I14" s="14">
         <v>40</v>
       </c>
-      <c r="H14" s="7">
+      <c r="J14" s="7">
         <f t="shared" si="3"/>
         <v>-40</v>
-      </c>
-      <c r="I14" s="14">
-        <v>50</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="3"/>
-        <v>-50</v>
       </c>
       <c r="K14" s="14">
         <v>50</v>
@@ -2233,59 +2389,64 @@
         <v>-50</v>
       </c>
       <c r="M14" s="14">
+        <v>50</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="O14" s="14">
         <v>105</v>
       </c>
-      <c r="N14" s="7">
+      <c r="P14" s="7">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="O14" s="7">
+      <c r="Q14" s="7">
         <v>9</v>
       </c>
-      <c r="P14" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="7">
+      <c r="R14" s="14">
+        <v>100</v>
+      </c>
+      <c r="S14" s="7">
         <f t="shared" si="4"/>
         <v>-114</v>
       </c>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T14" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="12">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D15" s="12">
+        <v>67</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
+        <v>67</v>
+      </c>
+      <c r="G15" s="6">
         <v>10</v>
       </c>
-      <c r="F15" s="7">
+      <c r="H15" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G15" s="14">
+      <c r="I15" s="14">
         <v>20</v>
       </c>
-      <c r="H15" s="7">
+      <c r="J15" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
-      </c>
-      <c r="I15" s="14">
-        <v>25</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="3"/>
-        <v>-25</v>
       </c>
       <c r="K15" s="14">
         <v>25</v>
@@ -2295,59 +2456,64 @@
         <v>-25</v>
       </c>
       <c r="M15" s="14">
+        <v>25</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="O15" s="14">
         <v>55</v>
       </c>
-      <c r="N15" s="7">
+      <c r="P15" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O15" s="7">
+      <c r="Q15" s="7">
         <v>4</v>
       </c>
-      <c r="P15" s="14">
+      <c r="R15" s="14">
         <v>50</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="S15" s="7">
         <f t="shared" si="4"/>
         <v>-57</v>
       </c>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T15" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="12">
+      <c r="E16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
+        <v>60</v>
+      </c>
+      <c r="F16" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
+        <v>60</v>
+      </c>
+      <c r="G16" s="6">
         <v>10</v>
       </c>
-      <c r="F16" s="7">
+      <c r="H16" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G16" s="14">
+      <c r="I16" s="14">
         <v>20</v>
       </c>
-      <c r="H16" s="7">
+      <c r="J16" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
-      </c>
-      <c r="I16" s="14">
-        <v>25</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="3"/>
-        <v>-25</v>
       </c>
       <c r="K16" s="14">
         <v>25</v>
@@ -2357,180 +2523,198 @@
         <v>-25</v>
       </c>
       <c r="M16" s="14">
+        <v>25</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="O16" s="14">
         <v>55</v>
       </c>
-      <c r="N16" s="7">
+      <c r="P16" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O16" s="7">
+      <c r="Q16" s="7">
         <v>2</v>
       </c>
-      <c r="P16" s="14">
+      <c r="R16" s="14">
         <v>50</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="S16" s="7">
         <f t="shared" si="4"/>
         <v>-57</v>
       </c>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T16" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="12">
+      <c r="E17" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D17" s="12">
+        <v>130</v>
+      </c>
+      <c r="F17" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E17" s="6">
+        <v>65</v>
+      </c>
+      <c r="G17" s="6">
         <v>200</v>
       </c>
-      <c r="F17" s="7">
+      <c r="H17" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="I17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="7">
         <f t="shared" si="3"/>
         <v>-40</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="K17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="M17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="M17" s="14">
+      <c r="O17" s="14">
         <v>70</v>
       </c>
-      <c r="N17" s="7">
+      <c r="P17" s="7">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="O17" s="7">
+      <c r="Q17" s="7">
         <v>14</v>
       </c>
-      <c r="P17" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="7">
+      <c r="R17" s="14">
+        <v>100</v>
+      </c>
+      <c r="S17" s="7">
         <f t="shared" si="4"/>
         <v>-114</v>
       </c>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T17" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="12">
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="12">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D18" s="12">
+        <v>136</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E18" s="6">
+        <v>68</v>
+      </c>
+      <c r="G18" s="6">
         <v>200</v>
       </c>
-      <c r="F18" s="7">
+      <c r="H18" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="I18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="7">
         <f t="shared" si="3"/>
         <v>-40</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="K18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="7">
+      <c r="M18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="M18" s="14">
+      <c r="O18" s="14">
         <v>70</v>
       </c>
-      <c r="N18" s="7">
+      <c r="P18" s="7">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="P18" s="14">
+      <c r="R18" s="14">
         <v>120</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="S18" s="7">
         <f t="shared" si="4"/>
         <v>-114</v>
       </c>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T18" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="12">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
+        <v>100</v>
+      </c>
+      <c r="F19" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6">
         <v>10</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G19" s="14">
+      <c r="I19" s="14">
         <v>20</v>
       </c>
-      <c r="H19" s="7">
+      <c r="J19" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
-      </c>
-      <c r="I19" s="14">
-        <v>25</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="3"/>
-        <v>-25</v>
       </c>
       <c r="K19" s="14">
         <v>25</v>
@@ -2540,253 +2724,282 @@
         <v>-25</v>
       </c>
       <c r="M19" s="14">
+        <v>25</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="3"/>
+        <v>-25</v>
+      </c>
+      <c r="O19" s="14">
         <v>55</v>
       </c>
-      <c r="N19" s="7">
+      <c r="P19" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O19" s="7">
+      <c r="Q19" s="7">
         <v>2</v>
       </c>
-      <c r="P19" s="14">
+      <c r="R19" s="14">
         <v>50</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="S19" s="7">
         <f t="shared" si="4"/>
         <v>-57</v>
       </c>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="12">
+      <c r="E20" s="12">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="D20" s="12">
+        <v>153</v>
+      </c>
+      <c r="F20" s="12">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="E20" s="6">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7">
+        <v>153</v>
+      </c>
+      <c r="G20" s="6">
+        <v>100</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="I20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
       </c>
-      <c r="I20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="K20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="K20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="7">
+      <c r="M20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" s="7">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="M20" s="14">
+      <c r="O20" s="14">
         <v>40</v>
       </c>
-      <c r="N20" s="7">
+      <c r="P20" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="P20" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7">
+      <c r="R20" s="14">
+        <v>100</v>
+      </c>
+      <c r="S20" s="7">
         <f t="shared" si="4"/>
         <v>-57</v>
       </c>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T20" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="12">
+      <c r="E21" s="12">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="D21" s="12">
+        <v>143</v>
+      </c>
+      <c r="F21" s="12">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="E21" s="6">
-        <v>100</v>
-      </c>
-      <c r="F21" s="7">
+        <v>143</v>
+      </c>
+      <c r="G21" s="6">
+        <v>100</v>
+      </c>
+      <c r="H21" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="I21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="K21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="7">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="K21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="7">
+      <c r="M21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" s="7">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="M21" s="14">
+      <c r="O21" s="14">
         <v>40</v>
       </c>
-      <c r="N21" s="7">
+      <c r="P21" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O21" s="7">
+      <c r="Q21" s="7">
         <v>-10</v>
       </c>
-      <c r="P21" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="7">
+      <c r="R21" s="14">
+        <v>100</v>
+      </c>
+      <c r="S21" s="7">
         <f t="shared" si="4"/>
         <v>-57</v>
       </c>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T21" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="12">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D22" s="12">
+        <v>126</v>
+      </c>
+      <c r="F22" s="12">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="E22" s="6">
-        <v>100</v>
-      </c>
-      <c r="F22" s="7">
+        <v>63</v>
+      </c>
+      <c r="G22" s="6">
+        <v>100</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="I22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="7">
         <f t="shared" si="3"/>
         <v>-40</v>
       </c>
-      <c r="I22" s="14">
-        <v>100</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="K22" s="14">
+        <v>100</v>
+      </c>
+      <c r="L22" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="K22" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="M22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="M22" s="14">
-        <v>100</v>
-      </c>
-      <c r="N22" s="7">
+      <c r="O22" s="14">
+        <v>100</v>
+      </c>
+      <c r="P22" s="7">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="P22" s="14">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="7">
+      <c r="R22" s="14">
+        <v>100</v>
+      </c>
+      <c r="S22" s="7">
         <f t="shared" si="4"/>
         <v>-114</v>
       </c>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T22" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="12">
-        <f>SUM(E23:AAA23)</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="E23" s="12">
+        <f>SUM(G23:AAC23)</f>
+        <v>76</v>
+      </c>
+      <c r="F23" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="7">
+        <v>76</v>
+      </c>
+      <c r="H23" s="7">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="H23" s="7">
+      <c r="J23" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
       </c>
-      <c r="J23" s="7">
+      <c r="L23" s="7">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="L23" s="7">
+      <c r="N23" s="7">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="N23" s="7">
+      <c r="P23" s="7">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="O23" s="7">
+      <c r="Q23" s="7">
         <f>58+130</f>
         <v>188</v>
       </c>
-      <c r="Q23" s="7">
-        <f>-(Q$1*$A23)</f>
+      <c r="S23" s="7">
+        <f>-(S$1*$A23)</f>
         <v>-57</v>
       </c>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D25" s="15">
-        <f>MIN(D2:D23)</f>
-        <v>0</v>
+      <c r="T23" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F25" s="15">
+        <f>MIN(F2:F23)</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/board/BOM.xlsx
+++ b/board/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SaintGimp\MotorController\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263659E4-6118-49B0-9811-103FA1CCCAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A044D687-59A6-4C5A-90F9-46563D613FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="4650" windowWidth="23025" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="133">
   <si>
     <t>Qty</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>20pF capacitor</t>
+  </si>
+  <si>
+    <t>7805SRH-C</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1467,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,6 +2496,9 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
       <c r="E16" s="12">
         <f t="shared" si="0"/>
         <v>60</v>
